--- a/ModelCreation/ESXP_Param_v1.xlsx
+++ b/ModelCreation/ESXP_Param_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SESA503669\PycharmProjects\NARESH_EP\ModelCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8535065-7DEC-4674-90C8-CF285B6A7B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF93EED5-6E51-4A5D-8E4D-B00758E397A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1170,7 +1170,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1577,7 +1597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,10 +1838,10 @@
   </sheetData>
   <autoFilter ref="A1:AG2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <conditionalFormatting sqref="A1 A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1835,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C080EA85-26E2-427F-A692-43EC296FD1AF}">
   <dimension ref="A1:AG120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12132,10 +12152,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C109:C120 A1 A109:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A108">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
